--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.24113192585778984, 0.0365155747919555, -0.02213706563242796, -0.02083548011723516, 0.053583984900950406, 0.22415669011270178, 0.3988605318085916, 0.21300743485757895, 0.03172863325973266, -0.02198066699611678, -0.03304526600005884, 0.03763938432019791, 0.21165366798566138, 0.37461838730625513, 0.20122072450867326, 0.024294018998048412, -0.01791250224557113, -0.020245486427528485, 0.017087701172002045]</t>
+    <t>[1.0, 0.23318776677716094, 0.03051666646448454, -0.022756364554546334, -0.02645397937035928, 0.04540380859552315, 0.2101209650488192, 0.3820628747763741, 0.20622912574808683, 0.03193087621973779, -0.018657461627024616, -0.038987960532592035, 0.036515309396303174, 0.20152390433027967, 0.3614415503858696, 0.18935763324900232, 0.020665030860140585, -0.023942182871921198, -0.024133943426347126, 0.018422551438419407]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2385008366972492, 0.036893380993165296, -0.02044702822460681, -0.020082518268327937, 0.054362813069985964, 0.22127921620909055, 0.3976215538413547, 0.20966648997522017, 0.03140626021769912, -0.020973962606546322, -0.0317806181073403, 0.03654904178448992, 0.2096342195268291, 0.3722321783006814, 0.20031300082313108, 0.02435840871459205, -0.0178342751652199, -0.017683819148293582, 0.01662298809041639]</t>
+    <t>[1.0, 0.23193874869759637, 0.031058775782711996, -0.02113182890330981, -0.025724106026786743, 0.04641307292125169, 0.2083310845857979, 0.38185545492132844, 0.20397538160480874, 0.03186191153099442, -0.017795622021419544, -0.03812813528153138, 0.03617071025505917, 0.20066402204449194, 0.3605414041616999, 0.188599112711134, 0.021087930260265775, -0.0233497640932082, -0.021832141684622147, 0.01806634837486836]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>71.84</v>
+        <v>33.25</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.008466364026155387</v>
+        <v>0.001211039053952787</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.07293682295996512</v>
+        <v>-0.0716874430586938</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.535452126192799</v>
+        <v>1.540928548617921</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8850500484339684</v>
+        <v>0.8988146863255276</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01797066155558752</v>
+        <v>-0.0007598249328794014</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.01476124393700719</v>
+        <v>-0.03678994382682052</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.664808141627848</v>
+        <v>1.709036458908619</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.08206215798751862</v>
+        <v>0.07264962439209825</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.2386671592577247</v>
+        <v>-0.2264823969784011</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.418234463159604</v>
+        <v>1.387586451417342</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.23318776677716094, 0.03051666646448454, -0.022756364554546334, -0.02645397937035928, 0.04540380859552315, 0.2101209650488192, 0.3820628747763741, 0.20622912574808683, 0.03193087621973779, -0.018657461627024616, -0.038987960532592035, 0.036515309396303174, 0.20152390433027967, 0.3614415503858696, 0.18935763324900232, 0.020665030860140585, -0.023942182871921198, -0.024133943426347126, 0.018422551438419407]</t>
+    <t>[1.0, 0.23888749825856517, 0.03119686013574433, -0.02333558268855407, -0.02357295989966193, 0.0493153886677503, 0.22195673648124387, 0.3970558603749315, 0.20902764682240677, 0.028465332870464943, -0.024261182953712795, -0.035110967120456665, 0.032970400011226204, 0.20802977418976773, 0.3732669625222403, 0.19715888383940092, 0.021533423029683533, -0.019561299833889198, -0.022410797537782978, 0.011975957094097028]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.23193874869759637, 0.031058775782711996, -0.02113182890330981, -0.025724106026786743, 0.04641307292125169, 0.2083310845857979, 0.38185545492132844, 0.20397538160480874, 0.03186191153099442, -0.017795622021419544, -0.03812813528153138, 0.03617071025505917, 0.20066402204449194, 0.3605414041616999, 0.188599112711134, 0.021087930260265775, -0.0233497640932082, -0.021832141684622147, 0.01806634837486836]</t>
+    <t>[1.0, 0.2360975847098175, 0.0310561805928046, -0.022275566167315707, -0.02355235603381758, 0.04935818765286317, 0.2187478876793816, 0.39589960965547155, 0.2056013637770178, 0.027674233653487448, -0.023916194472734756, -0.03460942504467993, 0.03120649198894752, 0.20578932998815852, 0.3709725492709221, 0.1964538262257991, 0.021233777002962546, -0.020012299028381864, -0.020362794074748853, 0.010867226851637655]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>33.25</v>
+        <v>47.75</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.001211039053952787</v>
+        <v>0.004631031518043279</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.0716874430586938</v>
+        <v>-0.07455679099609663</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.540928548617921</v>
+        <v>1.670791163804068</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8988146863255276</v>
+        <v>0.8914814814814814</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.0007598249328794014</v>
+        <v>0.02024924804744265</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.03678994382682052</v>
+        <v>-0.007991550674743653</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.709036458908619</v>
+        <v>1.801715192005326</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.07264962439209825</v>
+        <v>0.07961752136450161</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.2264823969784011</v>
+        <v>-0.2411708503571491</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.387586451417342</v>
+        <v>1.551190456185142</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.23888749825856517, 0.03119686013574433, -0.02333558268855407, -0.02357295989966193, 0.0493153886677503, 0.22195673648124387, 0.3970558603749315, 0.20902764682240677, 0.028465332870464943, -0.024261182953712795, -0.035110967120456665, 0.032970400011226204, 0.20802977418976773, 0.3732669625222403, 0.19715888383940092, 0.021533423029683533, -0.019561299833889198, -0.022410797537782978, 0.011975957094097028]</t>
+    <t>[1.0, 0.23778558207983122, 0.022827615227641325, -0.03249033695689084, -0.03176266677585463, 0.04283006738441504, 0.2217164567998397, 0.40089721551891677, 0.20831746620862254, 0.02212732223966535, -0.03230612987206453, -0.04368897576701962, 0.02448350071653799, 0.20592583476159718, 0.3763317198525951, 0.19603237457372225, 0.014629507570053353, -0.026712652893962432, -0.030348085630541775, 0.005185430974261977]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2360975847098175, 0.0310561805928046, -0.022275566167315707, -0.02355235603381758, 0.04935818765286317, 0.2187478876793816, 0.39589960965547155, 0.2056013637770178, 0.027674233653487448, -0.023916194472734756, -0.03460942504467993, 0.03120649198894752, 0.20578932998815852, 0.3709725492709221, 0.1964538262257991, 0.021233777002962546, -0.020012299028381864, -0.020362794074748853, 0.010867226851637655]</t>
+    <t>[1.0, 0.23790921385639446, 0.024007684664335307, -0.03140850667671699, -0.03075087992639604, 0.04343299711018512, 0.2214904677698268, 0.39997421599243993, 0.20852048681586038, 0.02293892453716549, -0.031309047737878536, -0.04280330667300946, 0.025376986449402877, 0.20589813093902565, 0.3758023698480617, 0.19585907286182647, 0.015234373561518154, -0.025843726531520506, -0.029260796907132812, 0.0060210359635150855]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.004631031518043279</v>
+        <v>0.005356548018998067</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.07455679099609663</v>
+        <v>-0.03363850548963302</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.670791163804068</v>
+        <v>1.672186344313421</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.02024924804744265</v>
+        <v>0.004987678675128903</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.007991550674743653</v>
+        <v>-0.04638124571656335</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.801715192005326</v>
+        <v>1.801532830624212</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.07961752136450161</v>
+        <v>-0.01921237485867761</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.2411708503571491</v>
+        <v>0.01511618490025547</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.551190456185142</v>
+        <v>1.557856378060666</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.23778558207983122, 0.022827615227641325, -0.03249033695689084, -0.03176266677585463, 0.04283006738441504, 0.2217164567998397, 0.40089721551891677, 0.20831746620862254, 0.02212732223966535, -0.03230612987206453, -0.04368897576701962, 0.02448350071653799, 0.20592583476159718, 0.3763317198525951, 0.19603237457372225, 0.014629507570053353, -0.026712652893962432, -0.030348085630541775, 0.005185430974261977]</t>
+    <t>[1.0, 0.23996387945268627, 0.028494876616910327, -0.030953501905999513, -0.028785912231395035, 0.047360453257784645, 0.22376768180634904, 0.4023236487680247, 0.2121956129292997, 0.025687613805297854, -0.02964870262779978, -0.04120003923060036, 0.02953357157521398, 0.20957010640948595, 0.3773807419720859, 0.2000665029412115, 0.01767692531220183, -0.024757107807891532, -0.02775274296900915, 0.010663517831414678]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.23790921385639446, 0.024007684664335307, -0.03140850667671699, -0.03075087992639604, 0.04343299711018512, 0.2214904677698268, 0.39997421599243993, 0.20852048681586038, 0.02293892453716549, -0.031309047737878536, -0.04280330667300946, 0.025376986449402877, 0.20589813093902565, 0.3758023698480617, 0.19585907286182647, 0.015234373561518154, -0.025843726531520506, -0.029260796907132812, 0.0060210359635150855]</t>
+    <t>[0.9999999999999998, 0.24019720851289322, 0.028836817907538982, -0.03073064546072016, -0.028635256455658953, 0.04737029554682923, 0.22372252253425542, 0.4022324138121458, 0.21236087912947965, 0.02578590283550848, -0.029536668172207348, -0.041067726916590636, 0.029839682991484092, 0.20967699321091912, 0.3775987889287572, 0.2001818982674323, 0.01774280420363508, -0.02468113483553468, -0.027618390869859732, 0.010844740086315198]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>47.75</v>
+        <v>71.84</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.005356548018998067</v>
+        <v>0.009088217265005505</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.03363850548963302</v>
+        <v>-0.03212568521037323</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.672186344313421</v>
+        <v>1.536672922373584</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8914814814814814</v>
+        <v>0.8850500484339684</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.004987678675128903</v>
+        <v>0.004397815794331796</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.04638124571656335</v>
+        <v>-0.04886711640120971</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.801532830624212</v>
+        <v>1.664628369494752</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.01921237485867761</v>
+        <v>-0.005156378821286983</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.01511618490025547</v>
+        <v>-0.002632368155416329</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.557856378060666</v>
+        <v>1.42431754550429</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.23996387945268627, 0.028494876616910327, -0.030953501905999513, -0.028785912231395035, 0.047360453257784645, 0.22376768180634904, 0.4023236487680247, 0.2121956129292997, 0.025687613805297854, -0.02964870262779978, -0.04120003923060036, 0.02953357157521398, 0.20957010640948595, 0.3773807419720859, 0.2000665029412115, 0.01767692531220183, -0.024757107807891532, -0.02775274296900915, 0.010663517831414678]</t>
+    <t>[1.0, 0.23778558207983122, 0.022827615227641325, -0.03249033695689084, -0.03176266677585463, 0.04283006738441504, 0.2217164567998397, 0.40089721551891677, 0.20831746620862254, 0.02212732223966535, -0.03230612987206453, -0.04368897576701962, 0.02448350071653799, 0.20592583476159718, 0.3763317198525951, 0.19603237457372225, 0.014629507570053353, -0.026712652893962432, -0.030348085630541775, 0.005185430974261977]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.24019720851289322, 0.028836817907538982, -0.03073064546072016, -0.028635256455658953, 0.04737029554682923, 0.22372252253425542, 0.4022324138121458, 0.21236087912947965, 0.02578590283550848, -0.029536668172207348, -0.041067726916590636, 0.029839682991484092, 0.20967699321091912, 0.3775987889287572, 0.2001818982674323, 0.01774280420363508, -0.02468113483553468, -0.027618390869859732, 0.010844740086315198]</t>
+    <t>[1.0, 0.23790921385639446, 0.024007684664335307, -0.03140850667671699, -0.03075087992639604, 0.04343299711018512, 0.2214904677698268, 0.39997421599243993, 0.20852048681586038, 0.02293892453716549, -0.031309047737878536, -0.04280330667300946, 0.025376986449402877, 0.20589813093902565, 0.3758023698480617, 0.19585907286182647, 0.015234373561518154, -0.025843726531520506, -0.029260796907132812, 0.0060210359635150855]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>71.84</v>
+        <v>47.75</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.009088217265005505</v>
+        <v>0.005356548018998067</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.03212568521037323</v>
+        <v>-0.03363850548963302</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.536672922373584</v>
+        <v>1.672186344313421</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8850500484339684</v>
+        <v>0.8914814814814814</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.004397815794331796</v>
+        <v>0.004987678675128903</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.04886711640120971</v>
+        <v>-0.04638124571656335</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.664628369494752</v>
+        <v>1.801532830624212</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.005156378821286983</v>
+        <v>-0.01921237485867761</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.002632368155416329</v>
+        <v>0.01511618490025547</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.42431754550429</v>
+        <v>1.557856378060666</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.23778558207983122, 0.022827615227641325, -0.03249033695689084, -0.03176266677585463, 0.04283006738441504, 0.2217164567998397, 0.40089721551891677, 0.20831746620862254, 0.02212732223966535, -0.03230612987206453, -0.04368897576701962, 0.02448350071653799, 0.20592583476159718, 0.3763317198525951, 0.19603237457372225, 0.014629507570053353, -0.026712652893962432, -0.030348085630541775, 0.005185430974261977]</t>
+    <t>[1.0, 0.2254609248719924, 0.011905922511050411, -0.04650682427590289, -0.044098553131532, 0.03033564586727745, 0.20514982032503615, 0.3877108396390888, 0.1942447139389808, 0.009528078106427687, -0.04595394384375145, -0.056481618338936675, 0.01485539905854682, 0.19434317132285397, 0.361201072961821, 0.18215981285519614, 0.0002690086851011737, -0.041353053919284066, -0.0427252927041747, -0.007041783067033135]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.23790921385639446, 0.024007684664335307, -0.03140850667671699, -0.03075087992639604, 0.04343299711018512, 0.2214904677698268, 0.39997421599243993, 0.20852048681586038, 0.02293892453716549, -0.031309047737878536, -0.04280330667300946, 0.025376986449402877, 0.20589813093902565, 0.3758023698480617, 0.19585907286182647, 0.015234373561518154, -0.025843726531520506, -0.029260796907132812, 0.0060210359635150855]</t>
+    <t>[1.0, 0.2230198756841849, 0.012011688183475427, -0.045039170332152725, -0.04377016895457832, 0.030704865541344748, 0.20223488596585942, 0.3870270433771894, 0.19101749491604164, 0.008847830227062035, -0.04559331156822698, -0.05591871818472744, 0.013269880549708563, 0.1923759249067009, 0.35924813719237947, 0.18161450219297498, -0.00011559649212930185, -0.04198627101776983, -0.04050061082577633, -0.007781171757771893]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>47.75</v>
+        <v>45.81</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.005356548018998067</v>
+        <v>0.002615313252274685</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.03363850548963302</v>
+        <v>-0.07923649046753914</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.672186344313421</v>
+        <v>1.808812253881741</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8914814814814814</v>
+        <v>0.9084993899959333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.004987678675128903</v>
+        <v>0.01240513083201955</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.04638124571656335</v>
+        <v>-0.02343746870349536</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.801532830624212</v>
+        <v>1.936312310869361</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.01921237485867761</v>
+        <v>0.08591928392187169</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.01511618490025547</v>
+        <v>-0.250423008170013</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.557856378060666</v>
+        <v>1.690068338648737</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.2254609248719924, 0.011905922511050411, -0.04650682427590289, -0.044098553131532, 0.03033564586727745, 0.20514982032503615, 0.3877108396390888, 0.1942447139389808, 0.009528078106427687, -0.04595394384375145, -0.056481618338936675, 0.01485539905854682, 0.19434317132285397, 0.361201072961821, 0.18215981285519614, 0.0002690086851011737, -0.041353053919284066, -0.0427252927041747, -0.007041783067033135]</t>
+    <t>[1.0, 0.22345764208746138, 0.009313186839776642, -0.04567286377204512, -0.04794271230765947, 0.02590096487705561, 0.19910422170768854, 0.3785768914540917, 0.19575101645769982, 0.013748199888822747, -0.04021901070608031, -0.06119875618416416, 0.014896822929713647, 0.19130792096365895, 0.3562147833776934, 0.17901019314583738, 0.0009082964563972481, -0.04525648710207334, -0.04514570313848705, -0.001331338540822674]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2230198756841849, 0.012011688183475427, -0.045039170332152725, -0.04377016895457832, 0.030704865541344748, 0.20223488596585942, 0.3870270433771894, 0.19101749491604164, 0.008847830227062035, -0.04559331156822698, -0.05591871818472744, 0.013269880549708563, 0.1923759249067009, 0.35924813719237947, 0.18161450219297498, -0.00011559649212930185, -0.04198627101776983, -0.04050061082577633, -0.007781171757771893]</t>
+    <t>[0.9999999999999998, 0.22347918644848128, 0.009872236124642721, -0.0451442403432018, -0.0475061906717393, 0.026160453395892725, 0.1989688389438082, 0.3781145900016963, 0.195800814794052, 0.014181629877157362, -0.039720859714758076, -0.06075085612026895, 0.01527893871738951, 0.19126015588292286, 0.35590683097819037, 0.1789797633652115, 0.0012336470707487335, -0.044794967525722686, -0.044641799568667505, -0.0009625485340753756]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>45.81</v>
+        <v>40.81</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.002615313252274685</v>
+        <v>0.001983710570619874</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.07923649046753914</v>
+        <v>-0.02970025362877381</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.808812253881741</v>
+        <v>1.654071473114823</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9084993899959333</v>
+        <v>0.9005037783375315</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01240513083201955</v>
+        <v>0.0007870276248536576</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.02343746870349536</v>
+        <v>-0.03749738162972732</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.936312310869361</v>
+        <v>1.826142250295411</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.08591928392187169</v>
+        <v>-0.009574743502662506</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.250423008170013</v>
+        <v>-0.006618982860083729</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.690068338648737</v>
+        <v>1.500112687447744</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.22345764208746138, 0.009313186839776642, -0.04567286377204512, -0.04794271230765947, 0.02590096487705561, 0.19910422170768854, 0.3785768914540917, 0.19575101645769982, 0.013748199888822747, -0.04021901070608031, -0.06119875618416416, 0.014896822929713647, 0.19130792096365895, 0.3562147833776934, 0.17901019314583738, 0.0009082964563972481, -0.04525648710207334, -0.04514570313848705, -0.001331338540822674]</t>
+    <t>[0.9999999999999998, 0.22347329692939916, 0.01777152838846454, -0.036304419347339655, -0.03983611573461683, 0.032362045240988624, 0.19886395502798257, 0.37384365462439806, 0.19589576632803124, 0.02002975816496038, -0.032285362440490996, -0.052570590605746544, 0.023530238925371302, 0.1926898164376698, 0.35212255307387963, 0.1794458847424574, 0.007644971051427387, -0.03810666462108625, -0.037235582851482964, 0.0052527956419870896]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.22347918644848128, 0.009872236124642721, -0.0451442403432018, -0.0475061906717393, 0.026160453395892725, 0.1989688389438082, 0.3781145900016963, 0.195800814794052, 0.014181629877157362, -0.039720859714758076, -0.06075085612026895, 0.01527893871738951, 0.19126015588292286, 0.35590683097819037, 0.1789797633652115, 0.0012336470707487335, -0.044794967525722686, -0.044641799568667505, -0.0009625485340753756]</t>
+    <t>[1.0, 0.22232580530934462, 0.018421853301887017, -0.034475062695248734, -0.03896577827275289, 0.03353802913255853, 0.19717633501802678, 0.37371788223324975, 0.19379714958399788, 0.020139490082570637, -0.03136876274634746, -0.051777164085803615, 0.023263230883847595, 0.19191999820954855, 0.3512958180923595, 0.17877259163892661, 0.008021730551721576, -0.03757255578758412, -0.03481932737571661, 0.005050340906240124]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.001983710570619874</v>
+        <v>0.001162868506602976</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.02970025362877381</v>
+        <v>-0.07560068538530175</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.654071473114823</v>
+        <v>1.652589380335493</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0007870276248536576</v>
+        <v>-0.004471468697079612</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.03749738162972732</v>
+        <v>-0.04811823934953448</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.826142250295411</v>
+        <v>1.825893731661849</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.009574743502662506</v>
+        <v>0.07570784929995338</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.006618982860083729</v>
+        <v>-0.2284056395814197</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.500112687447744</v>
+        <v>1.494389724504334</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.22347329692939916, 0.01777152838846454, -0.036304419347339655, -0.03983611573461683, 0.032362045240988624, 0.19886395502798257, 0.37384365462439806, 0.19589576632803124, 0.02002975816496038, -0.032285362440490996, -0.052570590605746544, 0.023530238925371302, 0.1926898164376698, 0.35212255307387963, 0.1794458847424574, 0.007644971051427387, -0.03810666462108625, -0.037235582851482964, 0.0052527956419870896]</t>
+    <t>[1.0, 0.22345764208746138, 0.009313186839776642, -0.04567286377204512, -0.04794271230765947, 0.02590096487705561, 0.19910422170768854, 0.3785768914540917, 0.19575101645769982, 0.013748199888822747, -0.04021901070608031, -0.06119875618416416, 0.014896822929713647, 0.19130792096365895, 0.3562147833776934, 0.17901019314583738, 0.0009082964563972481, -0.04525648710207334, -0.04514570313848705, -0.001331338540822674]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.22232580530934462, 0.018421853301887017, -0.034475062695248734, -0.03896577827275289, 0.03353802913255853, 0.19717633501802678, 0.37371788223324975, 0.19379714958399788, 0.020139490082570637, -0.03136876274634746, -0.051777164085803615, 0.023263230883847595, 0.19191999820954855, 0.3512958180923595, 0.17877259163892661, 0.008021730551721576, -0.03757255578758412, -0.03481932737571661, 0.005050340906240124]</t>
+    <t>[0.9999999999999998, 0.22347918644848128, 0.009872236124642721, -0.0451442403432018, -0.0475061906717393, 0.026160453395892725, 0.1989688389438082, 0.3781145900016963, 0.195800814794052, 0.014181629877157362, -0.039720859714758076, -0.06075085612026895, 0.01527893871738951, 0.19126015588292286, 0.35590683097819037, 0.1789797633652115, 0.0012336470707487335, -0.044794967525722686, -0.044641799568667505, -0.0009625485340753756]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.001162868506602976</v>
+        <v>0.001983710570619874</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.07560068538530175</v>
+        <v>-0.02970025362877381</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.652589380335493</v>
+        <v>1.654071473114823</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.004471468697079612</v>
+        <v>0.0007870276248536576</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.04811823934953448</v>
+        <v>-0.03749738162972732</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.825893731661849</v>
+        <v>1.826142250295411</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.07570784929995338</v>
+        <v>-0.009574743502662506</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.2284056395814197</v>
+        <v>-0.006618982860083729</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.494389724504334</v>
+        <v>1.500112687447744</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.22345764208746138, 0.009313186839776642, -0.04567286377204512, -0.04794271230765947, 0.02590096487705561, 0.19910422170768854, 0.3785768914540917, 0.19575101645769982, 0.013748199888822747, -0.04021901070608031, -0.06119875618416416, 0.014896822929713647, 0.19130792096365895, 0.3562147833776934, 0.17901019314583738, 0.0009082964563972481, -0.04525648710207334, -0.04514570313848705, -0.001331338540822674]</t>
+    <t>[0.9999999999999998, 0.22347329692939924, 0.01777152838846454, -0.036304419347339675, -0.039836115734616824, 0.03236204524098861, 0.19886395502798243, 0.3738436546243984, 0.1958957663280312, 0.020029758164960387, -0.03228536244049097, -0.05257059060574654, 0.023530238925371327, 0.19268981643766983, 0.3521225530738798, 0.17944588474245737, 0.007644971051427396, -0.03810666462108624, -0.03723558285148296, 0.005252795641987083]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.22347918644848128, 0.009872236124642721, -0.0451442403432018, -0.0475061906717393, 0.026160453395892725, 0.1989688389438082, 0.3781145900016963, 0.195800814794052, 0.014181629877157362, -0.039720859714758076, -0.06075085612026895, 0.01527893871738951, 0.19126015588292286, 0.35590683097819037, 0.1789797633652115, 0.0012336470707487335, -0.044794967525722686, -0.044641799568667505, -0.0009625485340753756]</t>
+    <t>[1.0, 0.2223258053093444, 0.018421853301887, -0.034475062695248755, -0.03896577827275292, 0.033538029132558524, 0.19717633501802673, 0.37371788223325003, 0.19379714958399782, 0.020139490082570634, -0.03136876274634749, -0.05177716408580365, 0.02326323088384756, 0.1919199982095485, 0.35129581809235955, 0.17877259163892664, 0.008021730551721557, -0.03757255578758416, -0.03481932737571662, 0.005050340906240087]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.001983710570619874</v>
+        <v>0.001162868506602955</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.02970025362877381</v>
+        <v>-0.07560068538530179</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.654071473114823</v>
+        <v>1.652589380335492</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0007870276248536576</v>
+        <v>-0.00447146869707964</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.03749738162972732</v>
+        <v>-0.04811823934953421</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.826142250295411</v>
+        <v>1.825893731661849</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.009574743502662506</v>
+        <v>0.07570784929995356</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.006618982860083729</v>
+        <v>-0.2284056395814199</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.500112687447744</v>
+        <v>1.494389724504334</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.22347329692939924, 0.01777152838846454, -0.036304419347339675, -0.039836115734616824, 0.03236204524098861, 0.19886395502798243, 0.3738436546243984, 0.1958957663280312, 0.020029758164960387, -0.03228536244049097, -0.05257059060574654, 0.023530238925371327, 0.19268981643766983, 0.3521225530738798, 0.17944588474245737, 0.007644971051427396, -0.03810666462108624, -0.03723558285148296, 0.005252795641987083]</t>
+    <t>[0.9999999999999998, 0.22347329692939916, 0.01777152838846454, -0.036304419347339655, -0.03983611573461683, 0.032362045240988624, 0.19886395502798257, 0.37384365462439806, 0.19589576632803124, 0.02002975816496038, -0.032285362440490996, -0.052570590605746544, 0.023530238925371302, 0.1926898164376698, 0.35212255307387963, 0.1794458847424574, 0.007644971051427387, -0.03810666462108625, -0.037235582851482964, 0.0052527956419870896]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2223258053093444, 0.018421853301887, -0.034475062695248755, -0.03896577827275292, 0.033538029132558524, 0.19717633501802673, 0.37371788223325003, 0.19379714958399782, 0.020139490082570634, -0.03136876274634749, -0.05177716408580365, 0.02326323088384756, 0.1919199982095485, 0.35129581809235955, 0.17877259163892664, 0.008021730551721557, -0.03757255578758416, -0.03481932737571662, 0.005050340906240087]</t>
+    <t>[1.0, 0.22232580530934462, 0.018421853301887017, -0.034475062695248734, -0.03896577827275289, 0.03353802913255853, 0.19717633501802678, 0.37371788223324975, 0.19379714958399788, 0.020139490082570637, -0.03136876274634746, -0.051777164085803615, 0.023263230883847595, 0.19191999820954855, 0.3512958180923595, 0.17877259163892661, 0.008021730551721576, -0.03757255578758412, -0.03481932737571661, 0.005050340906240124]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.001162868506602955</v>
+        <v>0.001162868506602976</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.07560068538530179</v>
+        <v>-0.07560068538530175</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.652589380335492</v>
+        <v>1.652589380335493</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9005037783375315</v>
+        <v>0.4738237243207422</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.00447146869707964</v>
+        <v>-0.004471468697079612</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.04811823934953421</v>
+        <v>-0.04811823934953448</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.07570784929995356</v>
+        <v>0.07570784929995338</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.2284056395814199</v>
+        <v>-0.2284056395814197</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.22347329692939916, 0.01777152838846454, -0.036304419347339655, -0.03983611573461683, 0.032362045240988624, 0.19886395502798257, 0.37384365462439806, 0.19589576632803124, 0.02002975816496038, -0.032285362440490996, -0.052570590605746544, 0.023530238925371302, 0.1926898164376698, 0.35212255307387963, 0.1794458847424574, 0.007644971051427387, -0.03810666462108625, -0.037235582851482964, 0.0052527956419870896]</t>
+    <t>[0.9999999999999998, 0.22347329692939924, 0.01777152838846454, -0.036304419347339675, -0.039836115734616824, 0.03236204524098861, 0.19886395502798243, 0.3738436546243984, 0.1958957663280312, 0.020029758164960387, -0.03228536244049097, -0.05257059060574654, 0.023530238925371327, 0.19268981643766983, 0.3521225530738798, 0.17944588474245737, 0.007644971051427396, -0.03810666462108624, -0.03723558285148296, 0.005252795641987083]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.22232580530934462, 0.018421853301887017, -0.034475062695248734, -0.03896577827275289, 0.03353802913255853, 0.19717633501802678, 0.37371788223324975, 0.19379714958399788, 0.020139490082570637, -0.03136876274634746, -0.051777164085803615, 0.023263230883847595, 0.19191999820954855, 0.3512958180923595, 0.17877259163892661, 0.008021730551721576, -0.03757255578758412, -0.03481932737571661, 0.005050340906240124]</t>
+    <t>[1.0, 0.2223258053093444, 0.018421853301887, -0.034475062695248755, -0.03896577827275292, 0.033538029132558524, 0.19717633501802673, 0.37371788223325003, 0.19379714958399782, 0.020139490082570634, -0.03136876274634749, -0.05177716408580365, 0.02326323088384756, 0.1919199982095485, 0.35129581809235955, 0.17877259163892664, 0.008021730551721557, -0.03757255578758416, -0.03481932737571662, 0.005050340906240087]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.001162868506602976</v>
+        <v>0.001162868506602955</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.07560068538530175</v>
+        <v>-0.07560068538530179</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.652589380335493</v>
+        <v>1.652589380335492</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.004471468697079612</v>
+        <v>-0.00447146869707964</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.04811823934953448</v>
+        <v>-0.04811823934953421</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.07570784929995338</v>
+        <v>0.07570784929995356</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.2284056395814197</v>
+        <v>-0.2284056395814199</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/WTI-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.22347329692939924, 0.01777152838846454, -0.036304419347339675, -0.039836115734616824, 0.03236204524098861, 0.19886395502798243, 0.3738436546243984, 0.1958957663280312, 0.020029758164960387, -0.03228536244049097, -0.05257059060574654, 0.023530238925371327, 0.19268981643766983, 0.3521225530738798, 0.17944588474245737, 0.007644971051427396, -0.03810666462108624, -0.03723558285148296, 0.005252795641987083]</t>
+    <t>[0.9999999999999998, 0.22347329692939907, 0.01777152838846455, -0.03630441934733968, -0.03983611573461682, 0.03236204524098858, 0.19886395502798263, 0.3738436546243984, 0.1958957663280312, 0.020029758164960356, -0.032285362440490954, -0.05257059060574652, 0.02353023892537132, 0.1926898164376698, 0.35212255307387985, 0.17944588474245737, 0.007644971051427372, -0.03810666462108625, -0.03723558285148297, 0.005252795641987112]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2223258053093444, 0.018421853301887, -0.034475062695248755, -0.03896577827275292, 0.033538029132558524, 0.19717633501802673, 0.37371788223325003, 0.19379714958399782, 0.020139490082570634, -0.03136876274634749, -0.05177716408580365, 0.02326323088384756, 0.1919199982095485, 0.35129581809235955, 0.17877259163892664, 0.008021730551721557, -0.03757255578758416, -0.03481932737571662, 0.005050340906240087]</t>
+    <t>[1.0, 0.22232580530934415, 0.018421853301887017, -0.034475062695248776, -0.0389657782727529, 0.03353802913255856, 0.19717633501802695, 0.37371788223325003, 0.1937971495839979, 0.02013949008257067, -0.03136876274634746, -0.05177716408580365, 0.023263230883847547, 0.19191999820954844, 0.35129581809235955, 0.17877259163892656, 0.008021730551721576, -0.03757255578758415, -0.03481932737571658, 0.005050340906240103]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.001162868506602955</v>
+        <v>0.001162868506602976</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.07560068538530179</v>
+        <v>-0.07560068538530175</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.00447146869707964</v>
+        <v>-0.004471468697079619</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.04811823934953421</v>
+        <v>-0.04811823934953435</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.07570784929995356</v>
+        <v>0.0757078492999536</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.494389724504334</v>
+        <v>1.494389724504335</v>
       </c>
     </row>
     <row r="10" spans="1:2">
